--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200319.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200319.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\util\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885D95D-626F-4EED-9750-745861031BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="4250" yWindow="1450" windowWidth="16920" windowHeight="11680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="新数据表" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="新数据表" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="74">
   <si>
     <t>序号</t>
   </si>
@@ -249,20 +254,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -278,15 +289,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -574,20 +594,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -709,7 +725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>40</v>
       </c>
@@ -728,19 +744,19 @@
       <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>624</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>50005</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>41389</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>2498</v>
       </c>
       <c r="S2" t="s">
@@ -780,7 +796,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>40</v>
       </c>
@@ -799,16 +815,16 @@
       <c r="G3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>28</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>3518</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>3349</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>128</v>
       </c>
       <c r="S3" t="s">
@@ -848,7 +864,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -867,13 +883,13 @@
       <c r="G4" t="s">
         <v>56</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>2907</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>2782</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>125</v>
       </c>
       <c r="S4" t="s">
@@ -913,7 +929,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>40</v>
       </c>
@@ -932,16 +948,16 @@
       <c r="G5" t="s">
         <v>57</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>1307</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>1236</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>45</v>
       </c>
       <c r="S5" t="s">
@@ -981,7 +997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>40</v>
       </c>
@@ -1000,16 +1016,16 @@
       <c r="G6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>15</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>1580</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>1517</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>50</v>
       </c>
       <c r="S6" t="s">
@@ -1049,7 +1065,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>40</v>
       </c>
@@ -1068,13 +1084,13 @@
       <c r="G7" t="s">
         <v>59</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>1175</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>1131</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>39</v>
       </c>
       <c r="S7" t="s">
@@ -1114,7 +1130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -1133,16 +1149,16 @@
       <c r="G8" t="s">
         <v>60</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>1015</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>967</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>38</v>
       </c>
       <c r="S8" t="s">
@@ -1182,7 +1198,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>40</v>
       </c>
@@ -1201,13 +1217,16 @@
       <c r="G9" t="s">
         <v>61</v>
       </c>
-      <c r="M9" t="n">
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="M9">
         <v>931</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>886</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>36</v>
       </c>
       <c r="S9" t="s">
@@ -1247,7 +1266,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>40</v>
       </c>
@@ -1266,13 +1285,16 @@
       <c r="G10" t="s">
         <v>62</v>
       </c>
-      <c r="M10" t="n">
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="M10">
         <v>928</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>875</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>39</v>
       </c>
       <c r="S10" t="s">
@@ -1312,7 +1334,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -1331,16 +1353,16 @@
       <c r="G11" t="s">
         <v>63</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>5</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>1394</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>1303</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>58</v>
       </c>
       <c r="S11" t="s">
@@ -1380,7 +1402,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -1399,13 +1421,13 @@
       <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>836</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>821</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>15</v>
       </c>
       <c r="S12" t="s">
@@ -1445,7 +1467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>40</v>
       </c>
@@ -1464,16 +1486,16 @@
       <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>6</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>672</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>661</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>8</v>
       </c>
       <c r="S13" t="s">
@@ -1513,7 +1535,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -1532,13 +1554,16 @@
       <c r="G14" t="s">
         <v>66</v>
       </c>
-      <c r="M14" t="n">
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="M14">
         <v>575</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>542</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>22</v>
       </c>
       <c r="S14" t="s">
@@ -1578,7 +1603,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>40</v>
       </c>
@@ -1597,13 +1622,13 @@
       <c r="G15" t="s">
         <v>67</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>496</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>479</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>15</v>
       </c>
       <c r="S15" t="s">
@@ -1643,7 +1668,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>40</v>
       </c>
@@ -1662,13 +1687,13 @@
       <c r="G16" t="s">
         <v>68</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>252</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>245</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>7</v>
       </c>
       <c r="S16" t="s">
@@ -1708,7 +1733,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>40</v>
       </c>
@@ -1727,13 +1752,13 @@
       <c r="G17" t="s">
         <v>69</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>198</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>187</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>9</v>
       </c>
       <c r="S17" t="s">
@@ -1773,7 +1798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -1792,10 +1817,10 @@
       <c r="G18" t="s">
         <v>70</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>11</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>11</v>
       </c>
       <c r="S18" t="s">
@@ -1835,7 +1860,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>40</v>
       </c>
@@ -1891,7 +1916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>40</v>
       </c>
@@ -1947,7 +1972,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>73</v>
       </c>
@@ -1963,31 +1988,31 @@
       <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21" t="n">
-        <v>691</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="K21">
+        <v>703</v>
+      </c>
+      <c r="L21">
         <v>2</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>67800</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>0</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>58381</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21">
         <v>3132</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>-1132</v>
       </c>
       <c r="S21" t="s">
@@ -2028,24 +2053,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>